--- a/data/Game/Recipe.xlsx
+++ b/data/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="93">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
   </si>
   <si>
     <t xml:space="preserve">59</t>
@@ -372,7 +375,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -380,7 +383,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -388,7 +391,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -396,7 +399,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -404,7 +407,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -412,7 +415,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -420,7 +423,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -428,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -436,7 +439,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -444,7 +447,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -452,7 +455,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -460,7 +463,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -468,7 +471,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -476,7 +479,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -484,7 +487,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -492,7 +495,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -500,7 +503,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -508,7 +511,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -516,7 +519,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -524,7 +527,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -532,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -540,7 +543,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -548,7 +551,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -556,7 +559,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +567,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -572,7 +575,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -580,7 +583,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -588,7 +591,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -604,7 +607,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -612,7 +615,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -628,7 +631,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -636,7 +639,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -644,7 +647,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -652,7 +655,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -668,7 +671,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -676,7 +679,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -684,7 +687,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -692,7 +695,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -708,7 +711,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -716,7 +719,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -724,7 +727,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
@@ -732,7 +735,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -740,7 +743,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -748,7 +751,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
@@ -756,7 +759,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -764,7 +767,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -772,7 +775,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -788,7 +791,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
@@ -796,7 +799,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
@@ -804,7 +807,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
@@ -828,7 +831,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
@@ -836,7 +839,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -844,7 +847,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
@@ -860,7 +863,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
@@ -893,6 +896,14 @@
       </c>
       <c r="B68" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
